--- a/Data Preprocessing/Proportion of Households/output/walkshed_proportional_households_stations_p75.xlsx
+++ b/Data Preprocessing/Proportion of Households/output/walkshed_proportional_households_stations_p75.xlsx
@@ -472,7 +472,9 @@
       <c r="C2" t="n">
         <v>3.042234111306811</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>4450</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>MSTN_062</t>
@@ -496,7 +498,9 @@
       <c r="C3" t="n">
         <v>5.065567222815983</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>6579</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>MSTN_001</t>
@@ -520,7 +524,9 @@
       <c r="C4" t="n">
         <v>9.904622600026331</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>12975</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>MSTN_002</t>
@@ -544,7 +550,9 @@
       <c r="C5" t="n">
         <v>2.142590026515344</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>3154</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>MSTN_065</t>
@@ -568,7 +576,9 @@
       <c r="C6" t="n">
         <v>2.967460650101574</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>4375</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>MSTN_097</t>
@@ -592,7 +602,9 @@
       <c r="C7" t="n">
         <v>17.77375135484162</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>19982</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>MSTN_068</t>
@@ -616,7 +628,9 @@
       <c r="C8" t="n">
         <v>10.23629492751063</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>12549</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>MSTN_003</t>
@@ -640,7 +654,9 @@
       <c r="C9" t="n">
         <v>11.77045736740309</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>13018</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>MSTN_052</t>
@@ -664,7 +680,9 @@
       <c r="C10" t="n">
         <v>12.52271077120747</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>14300</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>MSTN_078</t>
@@ -688,7 +706,9 @@
       <c r="C11" t="n">
         <v>3.737751568576946</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>5806</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>MSTN_077</t>
@@ -712,7 +732,9 @@
       <c r="C12" t="n">
         <v>6.133468949913421</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>8011</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>MSTN_004</t>
@@ -736,7 +758,9 @@
       <c r="C13" t="n">
         <v>5.461832090331905</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>7206</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>MSTN_084</t>
@@ -760,7 +784,9 @@
       <c r="C14" t="n">
         <v>16.72928775605027</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>19587</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>MSTN_005</t>
@@ -784,7 +810,9 @@
       <c r="C15" t="n">
         <v>1.648864063889253</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>2680</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>MSTN_058</t>
@@ -808,7 +836,9 @@
       <c r="C16" t="n">
         <v>16.98187992704936</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>21890</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>MSTN_063</t>
@@ -832,7 +862,9 @@
       <c r="C17" t="n">
         <v>10.90048394633097</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>13226</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>MSTN_006</t>
@@ -856,7 +888,9 @@
       <c r="C18" t="n">
         <v>2.385918840381501</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>3577</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>MSTN_053</t>
@@ -880,7 +914,9 @@
       <c r="C19" t="n">
         <v>34.68904695472436</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>37923</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>MSTN_007</t>
@@ -904,7 +940,9 @@
       <c r="C20" t="n">
         <v>7.77126866548114</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>11315</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>MSTN_008</t>
@@ -928,7 +966,9 @@
       <c r="C21" t="n">
         <v>21.82430001788421</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>24223</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>MSTN_061</t>
@@ -952,7 +992,9 @@
       <c r="C22" t="n">
         <v>13.19261488134054</v>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>14726</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>MSTN_072</t>
@@ -976,7 +1018,9 @@
       <c r="C23" t="n">
         <v>4.72316993821583</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>7243</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>MSTN_009</t>
@@ -1000,7 +1044,9 @@
       <c r="C24" t="n">
         <v>5.77282756982923</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>7231</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>MSTN_067</t>
@@ -1024,7 +1070,9 @@
       <c r="C25" t="n">
         <v>32.29663581899288</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>37270</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>MSTN_010</t>
@@ -1048,7 +1096,9 @@
       <c r="C26" t="n">
         <v>4.374779510819735</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>5942</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>MSTN_064</t>
@@ -1072,7 +1122,9 @@
       <c r="C27" t="n">
         <v>20.44865918251802</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>23404</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>MSTN_011</t>
@@ -1096,7 +1148,9 @@
       <c r="C28" t="n">
         <v>8.542438631918795</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>11402</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>MSTN_080</t>
@@ -1120,7 +1174,9 @@
       <c r="C29" t="n">
         <v>26.56905921410244</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>31718</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>MSTN_012</t>
@@ -1144,7 +1200,9 @@
       <c r="C30" t="n">
         <v>23.16384887267576</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>26641</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>MSTN_013</t>
@@ -1168,7 +1226,9 @@
       <c r="C31" t="n">
         <v>13.63382743982814</v>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>17479</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>MSTN_014</t>
@@ -1192,7 +1252,9 @@
       <c r="C32" t="n">
         <v>6.091452692831288</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>9216</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>MSTN_015</t>
@@ -1216,7 +1278,9 @@
       <c r="C33" t="n">
         <v>15.1954382529941</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>17383</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>MSTN_016</t>
@@ -1240,7 +1304,9 @@
       <c r="C34" t="n">
         <v>4.111759723903512</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>5026</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>MSTN_048</t>
@@ -1264,7 +1330,9 @@
       <c r="C35" t="n">
         <v>9.346664680282109</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>11253</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>MSTN_017</t>
@@ -1288,7 +1356,9 @@
       <c r="C36" t="n">
         <v>2.798424469713026</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>3511</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>MSTN_083</t>
@@ -1312,7 +1382,9 @@
       <c r="C37" t="n">
         <v>10.00877434558677</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>11594</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>MSTN_018</t>
@@ -1336,7 +1408,9 @@
       <c r="C38" t="n">
         <v>19.12345698240191</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>21133</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>MSTN_019</t>
@@ -1360,7 +1434,9 @@
       <c r="C39" t="n">
         <v>19.03268106112246</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>21454</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>MSTN_020</t>
@@ -1384,7 +1460,9 @@
       <c r="C40" t="n">
         <v>4.885659461269054</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>5885</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>MSTN_044</t>
@@ -1408,7 +1486,9 @@
       <c r="C41" t="n">
         <v>3.779018327434301</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4809</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>MSTN_049</t>
@@ -1432,7 +1512,9 @@
       <c r="C42" t="n">
         <v>6.848202438338495</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>8579</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>MSTN_089</t>
@@ -1456,7 +1538,9 @@
       <c r="C43" t="n">
         <v>7.257995424414785</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>9329</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>MSTN_047</t>
@@ -1480,7 +1564,9 @@
       <c r="C44" t="n">
         <v>9.105226787446677</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>11409</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>MSTN_082</t>
@@ -1504,7 +1590,9 @@
       <c r="C45" t="n">
         <v>3.150962736226772</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>4823</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>MSTN_093</t>
@@ -1528,7 +1616,9 @@
       <c r="C46" t="n">
         <v>4.522045728306041</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>6310</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>MSTN_094</t>
@@ -1552,7 +1642,9 @@
       <c r="C47" t="n">
         <v>12.9939061350536</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>15857</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>MSTN_021</t>
@@ -1576,7 +1668,9 @@
       <c r="C48" t="n">
         <v>10.71099822315887</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>12001</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>MSTN_079</t>
@@ -1600,7 +1694,9 @@
       <c r="C49" t="n">
         <v>9.182474605355669</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>12296</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>MSTN_022</t>
@@ -1624,7 +1720,9 @@
       <c r="C50" t="n">
         <v>4.405903737560451</v>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>6616</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>MSTN_057</t>
@@ -1648,7 +1746,9 @@
       <c r="C51" t="n">
         <v>3.408272329452662</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>5214</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>MSTN_085</t>
@@ -1672,7 +1772,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>MSTN_096</t>
@@ -1696,7 +1798,9 @@
       <c r="C53" t="n">
         <v>5.619465873673822</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>7475</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>MSTN_087</t>
@@ -1720,7 +1824,9 @@
       <c r="C54" t="n">
         <v>18.5824465266909</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>22876</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>MSTN_023</t>
@@ -1744,7 +1850,9 @@
       <c r="C55" t="n">
         <v>5.209058761607902</v>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>6706</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>MSTN_050</t>
@@ -1768,7 +1876,9 @@
       <c r="C56" t="n">
         <v>18.91962561256793</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>20512</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>MSTN_024</t>
@@ -1792,7 +1902,9 @@
       <c r="C57" t="n">
         <v>7.678480927371615</v>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>8962</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>MSTN_025</t>
@@ -1816,7 +1928,9 @@
       <c r="C58" t="n">
         <v>3.467022859004211</v>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>5487</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>MSTN_086</t>
@@ -1840,7 +1954,9 @@
       <c r="C59" t="n">
         <v>31.26866144922782</v>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>35583</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>MSTN_026</t>
@@ -1864,7 +1980,9 @@
       <c r="C60" t="n">
         <v>19.59379960395919</v>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>20929</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>MSTN_027</t>
@@ -1888,7 +2006,9 @@
       <c r="C61" t="n">
         <v>6.286926026311147</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>8424</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>MSTN_074</t>
@@ -1912,7 +2032,9 @@
       <c r="C62" t="n">
         <v>2.899649160522108</v>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>3844</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>MSTN_056</t>
@@ -1936,7 +2058,9 @@
       <c r="C63" t="n">
         <v>20.94390147661969</v>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>24616</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>MSTN_028</t>
@@ -1960,7 +2084,9 @@
       <c r="C64" t="n">
         <v>8.605516077862644</v>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>11680</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>MSTN_070</t>
@@ -1984,7 +2110,9 @@
       <c r="C65" t="n">
         <v>14.77017356713915</v>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>16518</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>MSTN_071</t>
@@ -2008,7 +2136,9 @@
       <c r="C66" t="n">
         <v>11.26251316613673</v>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>13024</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>MSTN_029</t>
@@ -2032,7 +2162,9 @@
       <c r="C67" t="n">
         <v>7.280733922036195</v>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>8342</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>MSTN_054</t>
@@ -2056,7 +2188,9 @@
       <c r="C68" t="n">
         <v>9.281037520751784</v>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>12288</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>MSTN_030</t>
@@ -2080,7 +2214,9 @@
       <c r="C69" t="n">
         <v>5.54648961864592</v>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>7046</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>MSTN_042</t>
@@ -2104,7 +2240,9 @@
       <c r="C70" t="n">
         <v>7.288517409280571</v>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>9846</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>MSTN_073</t>
@@ -2128,7 +2266,9 @@
       <c r="C71" t="n">
         <v>14.70047041223106</v>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>16688</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>MSTN_060</t>
@@ -2152,7 +2292,9 @@
       <c r="C72" t="n">
         <v>5.781664287524408</v>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>9193</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>MSTN_092</t>
@@ -2176,7 +2318,9 @@
       <c r="C73" t="n">
         <v>4.574682391188671</v>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>5664</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>MSTN_041</t>
@@ -2200,7 +2344,9 @@
       <c r="C74" t="n">
         <v>33.27149770234106</v>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>39422</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>MSTN_031</t>
@@ -2224,7 +2370,9 @@
       <c r="C75" t="n">
         <v>16.92912394265874</v>
       </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>18447</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>MSTN_051</t>
@@ -2248,7 +2396,9 @@
       <c r="C76" t="n">
         <v>3.5117226183624</v>
       </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>4823</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>MSTN_032</t>
@@ -2272,7 +2422,9 @@
       <c r="C77" t="n">
         <v>6.405553218151977</v>
       </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>8580</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>MSTN_076</t>
@@ -2296,7 +2448,9 @@
       <c r="C78" t="n">
         <v>6.283629184316363</v>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>7703</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>MSTN_090</t>
@@ -2320,7 +2474,9 @@
       <c r="C79" t="n">
         <v>9.874418236787667</v>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>11445</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>MSTN_033</t>
@@ -2344,7 +2500,9 @@
       <c r="C80" t="n">
         <v>4.103862635241107</v>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>6177</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>MSTN_075</t>
@@ -2368,7 +2526,9 @@
       <c r="C81" t="n">
         <v>7.393954227383318</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>8615</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>MSTN_034</t>
@@ -2392,7 +2552,9 @@
       <c r="C82" t="n">
         <v>7.777237644731517</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>10413</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>MSTN_035</t>
@@ -2416,7 +2578,9 @@
       <c r="C83" t="n">
         <v>7.1577086827513</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9165</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>MSTN_043</t>
@@ -2440,7 +2604,9 @@
       <c r="C84" t="n">
         <v>6.066702476028044</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>10119</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>MSTN_088</t>
@@ -2464,7 +2630,9 @@
       <c r="C85" t="n">
         <v>37.3926678472993</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>43023</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>MSTN_036</t>
@@ -2488,7 +2656,9 @@
       <c r="C86" t="n">
         <v>21.53445542317814</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>24154</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>MSTN_037</t>
@@ -2512,7 +2682,9 @@
       <c r="C87" t="n">
         <v>6.516828755230137</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>11056</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>MSTN_081</t>
@@ -2536,7 +2708,9 @@
       <c r="C88" t="n">
         <v>11.02363261904936</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>13197</v>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>MSTN_038</t>
@@ -2560,7 +2734,9 @@
       <c r="C89" t="n">
         <v>5.938628391604778</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>7653</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>MSTN_069</t>
@@ -2584,7 +2760,9 @@
       <c r="C90" t="n">
         <v>19.79599842394247</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>21478</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>MSTN_066</t>
@@ -2608,7 +2786,9 @@
       <c r="C91" t="n">
         <v>17.79469472989771</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>18794</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>MSTN_039</t>
@@ -2632,7 +2812,9 @@
       <c r="C92" t="n">
         <v>2.660839045571125</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>4393</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>MSTN_059</t>
@@ -2656,7 +2838,9 @@
       <c r="C93" t="n">
         <v>6.931065534980413</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>8744</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>MSTN_055</t>
@@ -2680,7 +2864,9 @@
       <c r="C94" t="n">
         <v>6.317590827944035</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>7637</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>MSTN_046</t>
@@ -2704,7 +2890,9 @@
       <c r="C95" t="n">
         <v>7.084019700677252</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9914</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>MSTN_045</t>
@@ -2728,7 +2916,9 @@
       <c r="C96" t="n">
         <v>3.411504061419861</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>6754</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>MSTN_091</t>
@@ -2752,7 +2942,9 @@
       <c r="C97" t="n">
         <v>15.73719527290167</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>19200</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>MSTN_040</t>
@@ -2776,7 +2968,9 @@
       <c r="C98" t="n">
         <v>0</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>MSTN_095</t>
